--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>File Name</t>
   </si>
@@ -52,6 +52,18 @@
     <t>2016-10-10 09:24:13</t>
   </si>
   <si>
+    <t>a4490a95-e742-4852-8490-6174db646455.md</t>
+  </si>
+  <si>
+    <t>e2e\a4490a95-e742-4852-8490-6174db646455.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:27:06</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -124,10 +136,25 @@
     <t>True</t>
   </si>
   <si>
+    <t>a4490a95-e742-4852-8490-6174db646455.a67382c08b6a095cb991297b872e1c4f9e9c2baa.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:26:56</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:27:42</t>
+  </si>
+  <si>
     <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.79fed6077362d441022f1408c5ba5070b73ca71c.de-de.xlf</t>
   </si>
   <si>
     <t>2016-10-10 09:25:42</t>
+  </si>
+  <si>
+    <t>a4490a95-e742-4852-8490-6174db646455.a67382c08b6a095cb991297b872e1c4f9e9c2baa.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:27:57</t>
   </si>
 </sst>
 </file>
@@ -184,8 +211,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P2" headerRowCount="1">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -209,8 +236,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P2" headerRowCount="1">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -234,8 +261,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -251,7 +278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -309,9 +336,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a4490a95-e742-4852-8490-6174db646455.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -322,7 +370,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -348,52 +396,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -407,49 +455,101 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>34</v>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId2"/>
     <hyperlink ref="I2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -460,7 +560,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -486,52 +586,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -545,16 +645,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -563,31 +663,83 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="L2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="0" t="s">
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>34</v>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId2"/>
     <hyperlink ref="I2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>File Name</t>
   </si>
@@ -64,6 +64,15 @@
     <t>2016-10-10 09:27:06</t>
   </si>
   <si>
+    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md</t>
+  </si>
+  <si>
+    <t>e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:30:12</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -145,6 +154,15 @@
     <t>2016-10-10 09:27:42</t>
   </si>
   <si>
+    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.1e9488531f109ac96f0c2db36c9a1a28b29c3380.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:30:00</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:30:42</t>
+  </si>
+  <si>
     <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.79fed6077362d441022f1408c5ba5070b73ca71c.de-de.xlf</t>
   </si>
   <si>
@@ -155,6 +173,12 @@
   </si>
   <si>
     <t>2016-10-10 09:27:57</t>
+  </si>
+  <si>
+    <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.1e9488531f109ac96f0c2db36c9a1a28b29c3380.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:30:58</t>
   </si>
 </sst>
 </file>
@@ -211,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -236,8 +260,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -261,8 +285,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -278,7 +302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -356,10 +380,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\a4490a95-e742-4852-8490-6174db646455.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -370,7 +415,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,52 +441,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -455,43 +500,43 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -505,43 +550,93 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -550,6 +645,8 @@
     <hyperlink ref="I2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId3"/>
     <hyperlink ref="A3" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId4"/>
     <hyperlink ref="I3" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -560,7 +657,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -586,52 +683,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -645,16 +742,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -663,25 +760,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -695,16 +792,16 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -713,25 +810,75 @@
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -740,6 +887,8 @@
     <hyperlink ref="I2" display="fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.md" r:id="rId3"/>
     <hyperlink ref="A3" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId4"/>
     <hyperlink ref="I3" display="a4490a95-e742-4852-8490-6174db646455.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
@@ -70,7 +70,7 @@
     <t>e2e\fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.md</t>
   </si>
   <si>
-    <t>2016-10-10 09:30:12</t>
+    <t>2016-10-10 09:31:35</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -157,10 +157,10 @@
     <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.1e9488531f109ac96f0c2db36c9a1a28b29c3380.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:30:00</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:30:42</t>
+    <t>2016-10-10 09:31:25</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:32:13</t>
   </si>
   <si>
     <t>fa55ea4e-ab78-44f7-b5c8-fca626e6eecc.79fed6077362d441022f1408c5ba5070b73ca71c.de-de.xlf</t>
@@ -178,7 +178,7 @@
     <t>fcee92e4-e213-4c85-bdcd-3f29e3f80fcf.1e9488531f109ac96f0c2db36c9a1a28b29c3380.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:30:58</t>
+    <t>2016-10-10 09:32:29</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -49,15 +49,18 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>2016-10-10 09:38:24</t>
+  </si>
+  <si>
+    <t>523eb56d-c432-4139-b454-edeb6f0553e4.md</t>
+  </si>
+  <si>
+    <t>e2e\523eb56d-c432-4139-b454-edeb6f0553e4.md</t>
+  </si>
+  <si>
     <t>2016-10-10 09:36:50</t>
   </si>
   <si>
-    <t>523eb56d-c432-4139-b454-edeb6f0553e4.md</t>
-  </si>
-  <si>
-    <t>e2e\523eb56d-c432-4139-b454-edeb6f0553e4.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -118,28 +121,37 @@
     <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-10-10 09:38:14</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:38:58</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>523eb56d-c432-4139-b454-edeb6f0553e4.4d2b0affa740e69a3be9f3db847d366d8bbe0601.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-10-10 09:36:39</t>
   </si>
   <si>
     <t>2016-10-10 09:37:27</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>523eb56d-c432-4139-b454-edeb6f0553e4.4d2b0affa740e69a3be9f3db847d366d8bbe0601.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-10-10 09:39:14</t>
+  </si>
+  <si>
+    <t>523eb56d-c432-4139-b454-edeb6f0553e4.4d2b0affa740e69a3be9f3db847d366d8bbe0601.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-10-10 09:37:43</t>
-  </si>
-  <si>
-    <t>523eb56d-c432-4139-b454-edeb6f0553e4.4d2b0affa740e69a3be9f3db847d366d8bbe0601.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -338,7 +350,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -381,52 +393,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -440,43 +452,43 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -490,43 +502,43 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -571,52 +583,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -630,16 +642,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -648,25 +660,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -680,43 +692,43 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,16 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-10-10 09:38:24</t>
-  </si>
-  <si>
-    <t>523eb56d-c432-4139-b454-edeb6f0553e4.md</t>
-  </si>
-  <si>
-    <t>e2e\523eb56d-c432-4139-b454-edeb6f0553e4.md</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:36:50</t>
+    <t>2016-10-10 09:39:51</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,10 +112,10 @@
     <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:38:14</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:38:58</t>
+    <t>2016-10-10 09:39:40</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:40:25</t>
   </si>
   <si>
     <t/>
@@ -133,25 +124,10 @@
     <t>True</t>
   </si>
   <si>
-    <t>523eb56d-c432-4139-b454-edeb6f0553e4.4d2b0affa740e69a3be9f3db847d366d8bbe0601.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:36:39</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:37:27</t>
-  </si>
-  <si>
     <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:39:14</t>
-  </si>
-  <si>
-    <t>523eb56d-c432-4139-b454-edeb6f0553e4.4d2b0affa740e69a3be9f3db847d366d8bbe0601.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:37:43</t>
+    <t>2016-10-10 09:40:41</t>
   </si>
 </sst>
 </file>
@@ -208,8 +184,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P2" headerRowCount="1">
+  <autoFilter ref="A1:P2"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -233,8 +209,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P2" headerRowCount="1">
+  <autoFilter ref="A1:P2"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -258,8 +234,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -275,7 +251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -333,30 +309,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -367,7 +322,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,52 +348,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -452,101 +407,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId2"/>
     <hyperlink ref="I2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -557,7 +460,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -583,52 +486,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -642,16 +545,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -660,83 +563,31 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId2"/>
     <hyperlink ref="I2" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="523eb56d-c432-4139-b454-edeb6f0553e4.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -37,46 +37,43 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>2b6ec526-c376-4a91-afa3-ee782c7d66ee.md</t>
+  </si>
+  <si>
+    <t>e2e\2b6ec526-c376-4a91-afa3-ee782c7d66ee.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:41:59</t>
+  </si>
+  <si>
+    <t>363d31ec-2660-4391-912c-f7492954c869.md</t>
+  </si>
+  <si>
+    <t>e2e\363d31ec-2660-4391-912c-f7492954c869.md</t>
+  </si>
+  <si>
+    <t>4a066e60-9c9f-4238-a567-d31be1f8a179.md</t>
+  </si>
+  <si>
+    <t>e2e\4a066e60-9c9f-4238-a567-d31be1f8a179.md</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:39:51</t>
+  </si>
+  <si>
     <t>7ed2a854-01c6-4bd3-8381-0ee20e055f16.md</t>
   </si>
   <si>
     <t>e2e\7ed2a854-01c6-4bd3-8381-0ee20e055f16.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:43:41</t>
-  </si>
-  <si>
-    <t>2b6ec526-c376-4a91-afa3-ee782c7d66ee.md</t>
-  </si>
-  <si>
-    <t>e2e\2b6ec526-c376-4a91-afa3-ee782c7d66ee.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:41:59</t>
-  </si>
-  <si>
-    <t>363d31ec-2660-4391-912c-f7492954c869.md</t>
-  </si>
-  <si>
-    <t>e2e\363d31ec-2660-4391-912c-f7492954c869.md</t>
-  </si>
-  <si>
-    <t>4a066e60-9c9f-4238-a567-d31be1f8a179.md</t>
-  </si>
-  <si>
-    <t>e2e\4a066e60-9c9f-4238-a567-d31be1f8a179.md</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:39:51</t>
+    <t>2016-10-10 09:44:18</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -136,55 +133,55 @@
     <t>False</t>
   </si>
   <si>
+    <t>2b6ec526-c376-4a91-afa3-ee782c7d66ee.b0feb0967efeeb21a8d7ed9ebb0eaac31f75219c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:41:49</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:42:40</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:39:40</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:40:25</t>
+  </si>
+  <si>
     <t>7ed2a854-01c6-4bd3-8381-0ee20e055f16.783aed5586b146015ca66ba5bfb8c06255923b52.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:43:30</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:44:50</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>2b6ec526-c376-4a91-afa3-ee782c7d66ee.b0feb0967efeeb21a8d7ed9ebb0eaac31f75219c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:41:49</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:42:40</t>
-  </si>
-  <si>
-    <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:39:40</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:40:25</t>
+    <t>2016-10-10 09:44:08</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:45:44</t>
+  </si>
+  <si>
+    <t>2b6ec526-c376-4a91-afa3-ee782c7d66ee.b0feb0967efeeb21a8d7ed9ebb0eaac31f75219c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:42:56</t>
+  </si>
+  <si>
+    <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:40:41</t>
   </si>
   <si>
     <t>7ed2a854-01c6-4bd3-8381-0ee20e055f16.783aed5586b146015ca66ba5bfb8c06255923b52.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 09:45:06</t>
-  </si>
-  <si>
-    <t>2b6ec526-c376-4a91-afa3-ee782c7d66ee.b0feb0967efeeb21a8d7ed9ebb0eaac31f75219c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:42:56</t>
-  </si>
-  <si>
-    <t>4a066e60-9c9f-4238-a567-d31be1f8a179.df1b08eeb98abb1bdea2c68622bef2fdf8082352.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-10-10 09:40:41</t>
+    <t>2016-10-10 09:46:00</t>
   </si>
 </sst>
 </file>
@@ -318,8 +315,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
-    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -377,61 +374,61 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\363d31ec-2660-4391-912c-f7492954c869.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId5"/>
+    <hyperlink ref="B2" display="e2e\2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\363d31ec-2660-4391-912c-f7492954c869.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -450,7 +447,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -468,52 +465,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -527,43 +524,43 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -574,158 +571,158 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="J4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="363d31ec-2660-4391-912c-f7492954c869.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="363d31ec-2660-4391-912c-f7492954c869.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="363d31ec-2660-4391-912c-f7492954c869.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="363d31ec-2660-4391-912c-f7492954c869.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -744,7 +741,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -762,52 +759,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -821,16 +818,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -839,25 +836,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="L2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -868,158 +865,158 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="J4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="363d31ec-2660-4391-912c-f7492954c869.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="363d31ec-2660-4391-912c-f7492954c869.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="2b6ec526-c376-4a91-afa3-ee782c7d66ee.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="363d31ec-2660-4391-912c-f7492954c869.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="363d31ec-2660-4391-912c-f7492954c869.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="4a066e60-9c9f-4238-a567-d31be1f8a179.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="7ed2a854-01c6-4bd3-8381-0ee20e055f16.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -46,7 +46,7 @@
     <t>.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
+    <t>Handed back: not in sync with en-US</t>
   </si>
   <si>
     <t>2016-10-10 09:52:49</t>
@@ -133,6 +133,9 @@
     <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-10-10 09:54:47</t>
+  </si>
+  <si>
     <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.c2d0cdac9fd925ea5f4097abf2812dede1df22ea.de-de.xlf</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
   </si>
   <si>
     <t>61aa49de-59cc-4317-a7ed-0b964375a556.6b137fa22c20bba66feafa565964e1acf4324327.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:55:02</t>
   </si>
 </sst>
 </file>
@@ -273,8 +279,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -363,7 +369,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -511,7 +517,7 @@
         <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>36</v>
@@ -553,7 +559,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -639,7 +645,7 @@
         <v>32</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -648,10 +654,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>36</v>
@@ -689,7 +695,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
@@ -698,10 +704,10 @@
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>36</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>File Name</t>
   </si>
@@ -58,6 +58,18 @@
     <t>e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
   </si>
   <si>
+    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
+  </si>
+  <si>
+    <t>e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:55:37</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -136,6 +148,15 @@
     <t>2016-10-10 09:54:47</t>
   </si>
   <si>
+    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:55:26</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:56:10</t>
+  </si>
+  <si>
     <t>2a9b8297-828f-4742-af6d-b4536e7a2e19.c2d0cdac9fd925ea5f4097abf2812dede1df22ea.de-de.xlf</t>
   </si>
   <si>
@@ -146,6 +167,12 @@
   </si>
   <si>
     <t>2016-10-10 09:55:02</t>
+  </si>
+  <si>
+    <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:56:26</t>
   </si>
 </sst>
 </file>
@@ -202,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -227,8 +254,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -252,8 +279,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -269,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -347,10 +374,31 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -361,7 +409,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -387,52 +435,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -446,43 +494,43 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -496,43 +544,93 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>36</v>
+      <c r="P4" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -541,6 +639,8 @@
     <hyperlink ref="I2" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId3"/>
     <hyperlink ref="A3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId4"/>
     <hyperlink ref="I3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -551,7 +651,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -577,52 +677,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -636,16 +736,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -654,25 +754,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -686,16 +786,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
@@ -704,25 +804,75 @@
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>36</v>
+      <c r="P4" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -731,6 +881,8 @@
     <hyperlink ref="I2" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId3"/>
     <hyperlink ref="A3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId4"/>
     <hyperlink ref="I3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>File Name</t>
   </si>
@@ -58,15 +58,42 @@
     <t>e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md</t>
   </si>
   <si>
+    <t>35060037-961d-4aaf-8439-26da88e541a2.md</t>
+  </si>
+  <si>
+    <t>e2e\35060037-961d-4aaf-8439-26da88e541a2.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:57:22</t>
+  </si>
+  <si>
+    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.md</t>
+  </si>
+  <si>
+    <t>e2e\385abfaf-42b1-4d73-a91a-1409782e68e5.md</t>
+  </si>
+  <si>
+    <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.md</t>
+  </si>
+  <si>
+    <t>e2e\44a0b75c-f3bd-4539-80a5-9efc5689a44e.md</t>
+  </si>
+  <si>
+    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md</t>
+  </si>
+  <si>
+    <t>e2e\58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md</t>
+  </si>
+  <si>
     <t>e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
   </si>
   <si>
     <t>e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-10-10 09:55:37</t>
   </si>
   <si>
@@ -148,6 +175,24 @@
     <t>2016-10-10 09:54:47</t>
   </si>
   <si>
+    <t>35060037-961d-4aaf-8439-26da88e541a2.afe1c8775a636c37a7a305f12446b3c849d1237f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:57:11</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:58:29</t>
+  </si>
+  <si>
+    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.cf803e6d9f881885e85f24e4b4207f270b0ed17c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.3954b07aa4add436cf906ff9c37c92a6c540faa1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.078f8e2ca88ca323ca2e315e6ad1be0a79b50c3e.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.zh-cn.xlf</t>
   </si>
   <si>
@@ -167,6 +212,21 @@
   </si>
   <si>
     <t>2016-10-10 09:55:02</t>
+  </si>
+  <si>
+    <t>35060037-961d-4aaf-8439-26da88e541a2.afe1c8775a636c37a7a305f12446b3c849d1237f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-10-10 09:58:46</t>
+  </si>
+  <si>
+    <t>385abfaf-42b1-4d73-a91a-1409782e68e5.cf803e6d9f881885e85f24e4b4207f270b0ed17c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>44a0b75c-f3bd-4539-80a5-9efc5689a44e.3954b07aa4add436cf906ff9c37c92a6c540faa1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>58e54fcd-dce7-4aa9-81dc-67df68fd93e7.078f8e2ca88ca323ca2e315e6ad1be0a79b50c3e.de-de.xlf</t>
   </si>
   <si>
     <t>e9ce2b69-2eef-4284-affa-53080365dcb7.d4b3e6dfd175c1572aedb888e24cda4ebb3b789d.de-de.xlf</t>
@@ -229,8 +289,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P8" headerRowCount="1">
+  <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -254,8 +314,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P8" headerRowCount="1">
+  <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -279,8 +339,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -296,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -394,11 +454,95 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId4"/>
+    <hyperlink ref="B4" display="e2e\35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -409,7 +553,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,52 +579,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -494,43 +638,43 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -544,43 +688,43 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -594,43 +738,243 @@
         <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>40</v>
+      <c r="F5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -639,8 +983,16 @@
     <hyperlink ref="I2" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId3"/>
     <hyperlink ref="A3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId4"/>
     <hyperlink ref="I3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId10"/>
+    <hyperlink ref="I6" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId14"/>
+    <hyperlink ref="I8" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -651,7 +1003,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -677,52 +1029,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -736,16 +1088,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -754,25 +1106,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -786,16 +1138,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
@@ -804,25 +1156,25 @@
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -836,16 +1188,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
@@ -854,25 +1206,225 @@
         <v>14</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -881,8 +1433,16 @@
     <hyperlink ref="I2" display="2a9b8297-828f-4742-af6d-b4536e7a2e19.md" r:id="rId3"/>
     <hyperlink ref="A3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId4"/>
     <hyperlink ref="I3" display="61aa49de-59cc-4317-a7ed-0b964375a556.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="35060037-961d-4aaf-8439-26da88e541a2.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="385abfaf-42b1-4d73-a91a-1409782e68e5.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId10"/>
+    <hyperlink ref="I6" display="44a0b75c-f3bd-4539-80a5-9efc5689a44e.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="58e54fcd-dce7-4aa9-81dc-67df68fd93e7.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId14"/>
+    <hyperlink ref="I8" display="e9ce2b69-2eef-4284-affa-53080365dcb7.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-10-10 10:00:46</t>
+    <t>2016-10-10 10:02:40</t>
   </si>
   <si>
     <t>bdd1cd65-ddec-4373-b131-d93eb2d93ad3.md</t>
@@ -109,7 +109,7 @@
     <t>e2e</t>
   </si>
   <si>
-    <t>ht</t>
+    <t>mt</t>
   </si>
   <si>
     <t>False</t>
@@ -118,10 +118,10 @@
     <t>03827f75-97de-404f-892c-49491be9ae6a.65f0ceaa8c4f874599ddb3f37c99b6e135708c5b.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 10:00:34</t>
-  </si>
-  <si>
-    <t>2016-10-10 10:01:31</t>
+    <t>2016-10-10 10:02:30</t>
+  </si>
+  <si>
+    <t>2016-10-10 10:03:17</t>
   </si>
   <si>
     <t/>
@@ -136,7 +136,7 @@
     <t>03827f75-97de-404f-892c-49491be9ae6a.65f0ceaa8c4f874599ddb3f37c99b6e135708c5b.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-10-10 10:01:49</t>
+    <t>2016-10-10 10:03:33</t>
   </si>
   <si>
     <t>bdd1cd65-ddec-4373-b131-d93eb2d93ad3.3c36a77d79f26932f3597fe2c307aa50bb5ff546.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -46,7 +46,7 @@
     <t>.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
+    <t>Handed back: not in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-01 14:34:51</t>
@@ -133,6 +133,9 @@
     <t>ca05378c-4eed-4d58-81b7-acaef26b2f98.e1b1d06507fbbde168c9402354a82550e88abe18.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-11-01 14:37:11</t>
+  </si>
+  <si>
     <t>779d8355-d9d5-407f-a0ae-7a1769f78dbc.8a2cb3bfd0b73c51d97ee3a8d46e7468cb1aafee.de-de.xlf</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
   </si>
   <si>
     <t>ca05378c-4eed-4d58-81b7-acaef26b2f98.e1b1d06507fbbde168c9402354a82550e88abe18.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-01 14:37:28</t>
   </si>
 </sst>
 </file>
@@ -273,8 +279,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -363,7 +369,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -511,7 +517,7 @@
         <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>36</v>
@@ -553,7 +559,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -639,7 +645,7 @@
         <v>32</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -648,10 +654,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>36</v>
@@ -689,7 +695,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
@@ -698,10 +704,10 @@
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>36</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-11-23 11:58:12</t>
+    <t>2016-11-23 12:00:04</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -112,10 +112,10 @@
     <t>2c37e513-929f-40fd-ad3a-7fac559c4422.5ce90b02802dd95f052b0d5a61b27c530be7d602.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-23 11:57:57</t>
-  </si>
-  <si>
-    <t>2016-11-23 11:58:50</t>
+    <t>2016-11-23 11:59:50</t>
+  </si>
+  <si>
+    <t>2016-11-23 12:00:48</t>
   </si>
   <si>
     <t/>
@@ -127,7 +127,7 @@
     <t>2c37e513-929f-40fd-ad3a-7fac559c4422.5ce90b02802dd95f052b0d5a61b27c530be7d602.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-11-23 11:59:09</t>
+    <t>2016-11-23 12:01:07</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/qimu/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>File Name</t>
   </si>
@@ -49,106 +49,106 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>N\A</t>
+    <t>2016-12-07 18:19:48</t>
+  </si>
+  <si>
+    <t>323a462f-c36f-49e3-868a-fc3b3a3f6523.md</t>
+  </si>
+  <si>
+    <t>e2e\323a462f-c36f-49e3-868a-fc3b3a3f6523.md</t>
+  </si>
+  <si>
+    <t>2016-12-07 16:53:27</t>
+  </si>
+  <si>
+    <t>6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md</t>
+  </si>
+  <si>
+    <t>e2e\6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md</t>
+  </si>
+  <si>
+    <t>ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md</t>
+  </si>
+  <si>
+    <t>e2e\ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source Path</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Content Duplicate</t>
+  </si>
+  <si>
+    <t>Correspond Handoff File</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Name</t>
+  </si>
+  <si>
+    <t>Target File</t>
+  </si>
+  <si>
+    <t>Correspond Handback File</t>
+  </si>
+  <si>
+    <t>Correspond Handback DateTime</t>
+  </si>
+  <si>
+    <t>Correspond Handback Name</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>To be localized</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Has metadata</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>e2e</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>239a08b0-ece6-427a-8e32-5e4dd5db5ddf.15d902f0a92cc9b19d324b9ca6d3993c68902ca1.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-12-07 18:19:34</t>
   </si>
   <si>
-    <t>323a462f-c36f-49e3-868a-fc3b3a3f6523.md</t>
-  </si>
-  <si>
-    <t>e2e\323a462f-c36f-49e3-868a-fc3b3a3f6523.md</t>
-  </si>
-  <si>
-    <t>2016-12-07 16:53:27</t>
-  </si>
-  <si>
-    <t>6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md</t>
-  </si>
-  <si>
-    <t>e2e\6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md</t>
-  </si>
-  <si>
-    <t>ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md</t>
-  </si>
-  <si>
-    <t>e2e\ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Source Path</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Content Duplicate</t>
-  </si>
-  <si>
-    <t>Correspond Handoff File</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Name</t>
-  </si>
-  <si>
-    <t>Target File</t>
-  </si>
-  <si>
-    <t>Correspond Handback File</t>
-  </si>
-  <si>
-    <t>Correspond Handback DateTime</t>
-  </si>
-  <si>
-    <t>Correspond Handback Name</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>To be localized</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Has metadata</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>e2e</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>239a08b0-ece6-427a-8e32-5e4dd5db5ddf.15d902f0a92cc9b19d324b9ca6d3993c68902ca1.zh-cn.xlf</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>2016-12-07 18:20:33</t>
   </si>
   <si>
-    <t>API_HB1_2016120820</t>
+    <t>API_HB2_2016120820</t>
   </si>
   <si>
     <t>True</t>
@@ -172,10 +172,19 @@
     <t>ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.03a0c1723a5ae4d16ecc269f3c19084f15445e02.zh-cn.xlf</t>
   </si>
   <si>
+    <t>239a08b0-ece6-427a-8e32-5e4dd5db5ddf.15d902f0a92cc9b19d324b9ca6d3993c68902ca1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-12-07 18:21:15</t>
+  </si>
+  <si>
     <t>323a462f-c36f-49e3-868a-fc3b3a3f6523.db5d9308aad8c0809191cd976b97375c2125431a.de-de.xlf</t>
   </si>
   <si>
     <t>2016-12-07 16:54:28</t>
+  </si>
+  <si>
+    <t>6e1a0553-f0ec-44c0-a582-1e05018ed7b6.7e094016197b4a306760b0b1ca43766313d026d9.de-de.xlf</t>
   </si>
   <si>
     <t>ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.03a0c1723a5ae4d16ecc269f3c19084f15445e02.de-de.xlf</t>
@@ -262,8 +271,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -358,18 +367,18 @@
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>9</v>
@@ -381,15 +390,15 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -398,18 +407,18 @@
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -421,7 +430,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -468,58 +477,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -533,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>42</v>
@@ -554,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>43</v>
@@ -572,7 +581,7 @@
         <v>42</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>42</v>
@@ -580,7 +589,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -589,10 +598,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>45</v>
@@ -607,7 +616,7 @@
         <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>46</v>
@@ -628,7 +637,7 @@
         <v>42</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>42</v>
@@ -636,7 +645,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -645,10 +654,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>45</v>
@@ -657,13 +666,13 @@
         <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>50</v>
@@ -684,7 +693,7 @@
         <v>42</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>42</v>
@@ -692,7 +701,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -701,10 +710,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>45</v>
@@ -719,7 +728,7 @@
         <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>51</v>
@@ -740,7 +749,7 @@
         <v>42</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>42</v>
@@ -766,7 +775,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -794,63 +803,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>9</v>
@@ -859,25 +868,25 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>52</v>
@@ -886,7 +895,7 @@
         <v>53</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>42</v>
@@ -898,7 +907,7 @@
         <v>42</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>42</v>
@@ -906,7 +915,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -915,10 +924,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>45</v>
@@ -927,19 +936,19 @@
         <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>54</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>49</v>
@@ -954,18 +963,134 @@
         <v>42</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="239a08b0-ece6-427a-8e32-5e4dd5db5ddf.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="239a08b0-ece6-427a-8e32-5e4dd5db5ddf.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="323a462f-c36f-49e3-868a-fc3b3a3f6523.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="6e1a0553-f0ec-44c0-a582-1e05018ed7b6.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="ecb6eacb-b8ae-4b95-81bd-9e8f3119a4f7.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
